--- a/1712878/FILE/PhieuMuon.xlsx
+++ b/1712878/FILE/PhieuMuon.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\GitHub\OOP_LT_LIRBRARY\1712878\FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD122F91-3C56-4D8E-A825-D3F49A017807}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF65F02-F4A4-4F8E-8EA6-360436B0C0B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9270" windowHeight="675" xr2:uid="{CB686686-7B06-4A76-B225-74E824C9D6A2}"/>
   </bookViews>
@@ -31,36 +31,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
   <si>
     <t>MA SACH</t>
   </si>
   <si>
-    <t>TEN SACH</t>
-  </si>
-  <si>
-    <t>TAC GIA</t>
-  </si>
-  <si>
-    <t>NGUOI MUON</t>
-  </si>
-  <si>
     <t>NGAY MUON</t>
   </si>
   <si>
-    <t>NGAY HET HAN</t>
-  </si>
-  <si>
     <t>TINH TRANG</t>
   </si>
   <si>
-    <t>TIEN PHAT</t>
+    <t>CMND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGAY HET HAN </t>
+  </si>
+  <si>
+    <t>KHTN002</t>
+  </si>
+  <si>
+    <t>KHTN003</t>
+  </si>
+  <si>
+    <t>KHTN008</t>
+  </si>
+  <si>
+    <t>KHTN004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -90,8 +96,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,22 +416,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95F53E5-4296-48D8-8873-BAFAFD569100}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -432,20 +444,159 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>216920917</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" s="1">
+        <v>43466</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2+7</f>
+        <v>43473</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>287918095</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C3" s="1">
+        <v>43467</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D20" si="0">C3+7</f>
+        <v>43474</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>165024578</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1">
+        <v>43468</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>43475</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>275771181</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43469</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>43476</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1712878/FILE/PhieuMuon.xlsx
+++ b/1712878/FILE/PhieuMuon.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\GitHub\OOP_LT_LIRBRARY\1712878\FILE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF65F02-F4A4-4F8E-8EA6-360436B0C0B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8035CEE-AD22-48EC-859A-9E1896872F5F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9270" windowHeight="675" xr2:uid="{CB686686-7B06-4A76-B225-74E824C9D6A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>MA SACH</t>
   </si>
@@ -58,6 +61,24 @@
   </si>
   <si>
     <t>KHTN004</t>
+  </si>
+  <si>
+    <t>KHTN001</t>
+  </si>
+  <si>
+    <t>KHTN005</t>
+  </si>
+  <si>
+    <t>KHTN006</t>
+  </si>
+  <si>
+    <t>KHTN007</t>
+  </si>
+  <si>
+    <t>KHTN009</t>
+  </si>
+  <si>
+    <t>KHTN010</t>
   </si>
 </sst>
 </file>
@@ -65,7 +86,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -96,11 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -416,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95F53E5-4296-48D8-8873-BAFAFD569100}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D23" sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,7 +448,7 @@
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -449,42 +469,40 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>216920917</v>
+        <v>268616154</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>43466</v>
       </c>
       <c r="D2" s="1">
-        <f>C2+7</f>
         <v>43473</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>287918095</v>
+        <v>156907345</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>43467</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D20" si="0">C3+7</f>
         <v>43474</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -492,113 +510,348 @@
         <v>165024578</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>43468</v>
+        <v>43467</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>43475</v>
-      </c>
-      <c r="E4" s="2">
+        <v>43474</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>223929938</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43467</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43474</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>190852217</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43468</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43475</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>212029163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43468</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43475</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>260493543</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43468</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43475</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>207232731</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43469</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43476</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>285206094</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <f ca="1">RANDBETWEEN(DATE(2019,1,1),DATE(2019,1,10))</f>
+        <v>43468</v>
+      </c>
+      <c r="D10" s="1">
+        <f ca="1">C10+7</f>
+        <v>43475</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>202321979</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43471</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43478</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>188185163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43472</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43479</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>232958486</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43472</v>
+      </c>
+      <c r="D13" s="1">
+        <v>43479</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>234517495</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43472</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43479</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>284953322</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43472</v>
+      </c>
+      <c r="D15" s="1">
+        <v>43479</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>210366942</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43473</v>
+      </c>
+      <c r="D16" s="1">
+        <v>43480</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>214587489</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43473</v>
+      </c>
+      <c r="D17" s="1">
+        <v>43480</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>259937103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43473</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43480</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>226793287</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43474</v>
+      </c>
+      <c r="D19" s="1">
+        <v>43481</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>245403375</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43475</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43482</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>270869768</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43475</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43482</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>274299112</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43475</v>
+      </c>
+      <c r="D22" s="1">
+        <v>43482</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>275771181</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43469</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>43476</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43475</v>
+      </c>
+      <c r="D23" s="1">
+        <v>43482</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E24">
+    <sortCondition ref="C1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>